--- a/new.xlsx
+++ b/new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WhatsappBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WhatsBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37C4FDF-6495-4050-A082-96B8115756ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A467AAC-B81F-4B1D-BFC7-6B23BCAB8715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="2685" windowWidth="11145" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="11145" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Numbers</t>
   </si>
@@ -33,13 +33,16 @@
     <t>Replies</t>
   </si>
   <si>
-    <t>+91 80183 37466</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>+91 90786 13527</t>
+    <t>Simran G</t>
+  </si>
+  <si>
+    <t>Me Idea</t>
+  </si>
+  <si>
+    <t>hekklad</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,10 +383,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +399,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
